--- a/WorkBot/refactor/data/orders/Hillcrest Foods/Hillcrest Foods_Bakery_2025-08-10.xlsx
+++ b/WorkBot/refactor/data/orders/Hillcrest Foods/Hillcrest Foods_Bakery_2025-08-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,465 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>62034</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M&amp;Ms Bulk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>112.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>70328</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Corn Meal - Coarse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25170</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raisins - Midget</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>140.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>33100</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nuts - Almonds (whole raw)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>116.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>33069</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nuts - Almonds (sliced)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>118.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>118.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33053</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nuts-Almonds Blanched (Slivered)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>113.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>113.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33422</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nuts - Walnut Halves &amp; Pieces</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>124.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>372.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>47170</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Seeds - Sesame</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>403.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17126</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flour - Warrior Clear</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18580</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flour - Victoria Patent (Org)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>240.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14145</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chocolate - Unsweetened Dark</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>183.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>183.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28173</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sugar - 10X (Powdered)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>137.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>72020</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Baking Soda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>70039</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Coconut Swt Flake</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>48133</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Spice - Cinnamon (Ground)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>132.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>36208</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Mango</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>53.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>107.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>36411</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rhubarb - FRZ (IQF)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>56.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
